--- a/biology/Botanique/Promenade_Bernard-Lafay/Promenade_Bernard-Lafay.xlsx
+++ b/biology/Botanique/Promenade_Bernard-Lafay/Promenade_Bernard-Lafay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade Bernard-Lafay est un espace vert du 17e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade Bernard-Lafay s’étend sur environ 2 km, à l’ouest du 17e arrondissement de Paris. Elle relie plusieurs espaces verts séparés, situés à proximité du boulevard périphérique, entre la porte Maillot et la porte d’Asnières.
 Du nord au sud, il s'agit des espaces suivants :
@@ -554,7 +568,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom de l'homme politique français Bernard Lafay (1903-1977), en tant que dernier président du conseil municipal de Paris (1975-1977) avant la réforme du statut de la Ville de Paris.
 </t>
@@ -585,7 +601,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade est ouverte en 1990. 
 </t>
